--- a/data/student_list.xlsx
+++ b/data/student_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheng\OneDrive - Nanyang Technological University\Y2S1\SC2002\ProjectEcplise\project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA1C02D-BFF9-4185-AF93-D9DF2C7F5DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA58B58-5090-4C79-B956-DDDDF43550AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21525" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="14355" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,13 +131,13 @@
     <t>AARON</t>
   </si>
   <si>
-    <t>AA341@e.ntu.edu.sg</t>
-  </si>
-  <si>
     <t>VASANTH</t>
   </si>
   <si>
     <t>vas@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>aaron@e.ntu.edu.sg</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +630,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -638,10 +638,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
